--- a/raw_data/20200818_saline/20200818_Sensor2_Test_65.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_65.xlsx
@@ -1,765 +1,1181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E8AFD6-0BDA-4F00-BD5D-FDD562B4EC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>57974.378856</v>
+        <v>57974.378856000003</v>
       </c>
       <c r="B2" s="1">
         <v>16.103994</v>
       </c>
       <c r="C2" s="1">
-        <v>1249.460000</v>
+        <v>1249.46</v>
       </c>
       <c r="D2" s="1">
-        <v>-304.412000</v>
+        <v>-304.41199999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>57984.422347</v>
       </c>
       <c r="G2" s="1">
-        <v>16.106784</v>
+        <v>16.106784000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1273.320000</v>
+        <v>1273.32</v>
       </c>
       <c r="I2" s="1">
-        <v>-262.342000</v>
+        <v>-262.34199999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>57994.899342</v>
+        <v>57994.899341999997</v>
       </c>
       <c r="L2" s="1">
-        <v>16.109694</v>
+        <v>16.109694000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1307.730000</v>
+        <v>1307.73</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.243000</v>
+        <v>-201.24299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>58005.112373</v>
+        <v>58005.112373000004</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.112531</v>
+        <v>16.112531000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1319.220000</v>
+        <v>1319.22</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.739000</v>
+        <v>-183.739</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>58015.724370</v>
+        <v>58015.724370000004</v>
       </c>
       <c r="V2" s="1">
-        <v>16.115479</v>
+        <v>16.115479000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1332.180000</v>
+        <v>1332.18</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.734000</v>
+        <v>-170.73400000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>58026.187972</v>
       </c>
       <c r="AA2" s="1">
-        <v>16.118386</v>
+        <v>16.118386000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.690000</v>
+        <v>1349.69</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.148000</v>
+        <v>-169.148</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>58036.783055</v>
       </c>
       <c r="AF2" s="1">
-        <v>16.121329</v>
+        <v>16.121328999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.840000</v>
+        <v>1362.84</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.157000</v>
+        <v>-179.15700000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>58047.247138</v>
+        <v>58047.247137999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.124235</v>
+        <v>16.124234999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1383.860000</v>
+        <v>1383.86</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.245000</v>
+        <v>-209.245</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>58058.154673</v>
+        <v>58058.154672999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.127265</v>
+        <v>16.127265000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1406.060000</v>
+        <v>1406.06</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.127000</v>
+        <v>-253.12700000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>58069.134075</v>
+        <v>58069.134075000002</v>
       </c>
       <c r="AU2" s="1">
         <v>16.130315</v>
       </c>
       <c r="AV2" s="1">
-        <v>1431.220000</v>
+        <v>1431.22</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.872000</v>
+        <v>-312.87200000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>58080.336237</v>
+        <v>58080.336237000003</v>
       </c>
       <c r="AZ2" s="1">
-        <v>16.133427</v>
+        <v>16.133427000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1450.970000</v>
+        <v>1450.97</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.670000</v>
+        <v>-364.67</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>58091.313715</v>
+        <v>58091.313714999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>16.136476</v>
+        <v>16.136475999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1537.950000</v>
+        <v>1537.95</v>
       </c>
       <c r="BG2" s="1">
-        <v>-610.829000</v>
+        <v>-610.82899999999995</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>58102.337263</v>
+        <v>58102.337263000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>16.139538</v>
+        <v>16.139538000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1694.930000</v>
+        <v>1694.93</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1050.550000</v>
+        <v>-1050.55</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>58114.184207</v>
+        <v>58114.184206999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.142829</v>
+        <v>16.142828999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1993.170000</v>
+        <v>1993.17</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1808.980000</v>
+        <v>-1808.98</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>58124.249029</v>
+        <v>58124.249028999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.145625</v>
+        <v>16.145624999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2383.920000</v>
+        <v>2383.92</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2682.870000</v>
+        <v>-2682.87</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>58135.446211</v>
+        <v>58135.446211000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>16.148735</v>
+        <v>16.148734999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2869.380000</v>
+        <v>2869.38</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3627.060000</v>
+        <v>-3627.06</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>58146.522879</v>
+        <v>58146.522878999996</v>
       </c>
       <c r="CD2" s="1">
         <v>16.151812</v>
       </c>
       <c r="CE2" s="1">
-        <v>4295.050000</v>
+        <v>4295.05</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5887.910000</v>
+        <v>-5887.91</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>57974.816825</v>
+        <v>57974.816825000002</v>
       </c>
       <c r="B3" s="1">
-        <v>16.104116</v>
+        <v>16.104116000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1249.060000</v>
+        <v>1249.06</v>
       </c>
       <c r="D3" s="1">
-        <v>-304.092000</v>
+        <v>-304.09199999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>57984.850394</v>
+        <v>57984.850394000001</v>
       </c>
       <c r="G3" s="1">
-        <v>16.106903</v>
+        <v>16.106902999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1273.070000</v>
+        <v>1273.07</v>
       </c>
       <c r="I3" s="1">
-        <v>-262.495000</v>
+        <v>-262.495</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>57995.007502</v>
@@ -768,692 +1184,692 @@
         <v>16.109724</v>
       </c>
       <c r="M3" s="1">
-        <v>1307.600000</v>
+        <v>1307.5999999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.088000</v>
+        <v>-201.08799999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>58005.524143</v>
+        <v>58005.524143000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>16.112646</v>
+        <v>16.112646000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1319.110000</v>
+        <v>1319.11</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.657000</v>
+        <v>-183.65700000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>58016.093894</v>
+        <v>58016.093893999998</v>
       </c>
       <c r="V3" s="1">
         <v>16.115582</v>
       </c>
       <c r="W3" s="1">
-        <v>1332.110000</v>
+        <v>1332.11</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.934000</v>
+        <v>-170.934</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>58026.573387</v>
+        <v>58026.573386999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.118493</v>
+        <v>16.118493000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1349.690000</v>
+        <v>1349.69</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.120000</v>
+        <v>-169.12</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>58037.162455</v>
+        <v>58037.162454999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>16.121434</v>
+        <v>16.121434000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1362.810000</v>
+        <v>1362.81</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.112000</v>
+        <v>-179.11199999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>58047.960359</v>
+        <v>58047.960358999997</v>
       </c>
       <c r="AK3" s="1">
         <v>16.124433</v>
       </c>
       <c r="AL3" s="1">
-        <v>1383.840000</v>
+        <v>1383.84</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.244000</v>
+        <v>-209.244</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>58058.555897</v>
+        <v>58058.555896999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.127377</v>
+        <v>16.127376999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1406.050000</v>
+        <v>1406.05</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.098000</v>
+        <v>-253.09800000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>58069.540298</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.130428</v>
+        <v>16.130427999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1431.240000</v>
+        <v>1431.24</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.811000</v>
+        <v>-312.81099999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>58080.722310</v>
+        <v>58080.722309999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>16.133534</v>
+        <v>16.133534000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.000000</v>
+        <v>1451</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.645000</v>
+        <v>-364.64499999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>58092.008574</v>
+        <v>58092.008573999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>16.136669</v>
+        <v>16.136669000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1537.920000</v>
+        <v>1537.92</v>
       </c>
       <c r="BG3" s="1">
-        <v>-610.811000</v>
+        <v>-610.81100000000004</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>58103.064398</v>
+        <v>58103.064398000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.139740</v>
+        <v>16.13974</v>
       </c>
       <c r="BK3" s="1">
-        <v>1694.820000</v>
+        <v>1694.82</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1050.620000</v>
+        <v>-1050.6199999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>58114.299279</v>
+        <v>58114.299278999999</v>
       </c>
       <c r="BO3" s="1">
         <v>16.142861</v>
       </c>
       <c r="BP3" s="1">
-        <v>1993.110000</v>
+        <v>1993.11</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1809.000000</v>
+        <v>-1809</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>58124.758431</v>
+        <v>58124.758431000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>16.145766</v>
+        <v>16.145765999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>2383.810000</v>
+        <v>2383.81</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2682.740000</v>
+        <v>-2682.74</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>58135.929811</v>
+        <v>58135.929811000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>16.148869</v>
+        <v>16.148869000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2869.080000</v>
+        <v>2869.08</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3626.980000</v>
+        <v>-3626.98</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>58147.117076</v>
+        <v>58147.117076000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>16.151977</v>
+        <v>16.151976999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4274.240000</v>
+        <v>4274.24</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5890.540000</v>
+        <v>-5890.54</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>57975.094583</v>
+        <v>57975.094582999998</v>
       </c>
       <c r="B4" s="1">
-        <v>16.104193</v>
+        <v>16.104192999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1249.350000</v>
+        <v>1249.3499999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-304.606000</v>
+        <v>-304.60599999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>57985.154973</v>
+        <v>57985.154972999997</v>
       </c>
       <c r="G4" s="1">
         <v>16.106987</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.260000</v>
+        <v>1273.26</v>
       </c>
       <c r="I4" s="1">
-        <v>-262.592000</v>
+        <v>-262.59199999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>57995.355165</v>
+        <v>57995.355165000001</v>
       </c>
       <c r="L4" s="1">
         <v>16.109821</v>
       </c>
       <c r="M4" s="1">
-        <v>1307.650000</v>
+        <v>1307.6500000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.518000</v>
+        <v>-201.518</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>58005.872830</v>
+        <v>58005.87283</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.112742</v>
+        <v>16.112742000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1319.090000</v>
+        <v>1319.09</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.458000</v>
+        <v>-183.458</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>58016.436162</v>
+        <v>58016.436161999998</v>
       </c>
       <c r="V4" s="1">
-        <v>16.115677</v>
+        <v>16.115677000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>1332.360000</v>
+        <v>1332.36</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.639000</v>
+        <v>-170.63900000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>58027.270740</v>
+        <v>58027.27074</v>
       </c>
       <c r="AA4" s="1">
         <v>16.118686</v>
       </c>
       <c r="AB4" s="1">
-        <v>1349.710000</v>
+        <v>1349.71</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.087000</v>
+        <v>-169.08699999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>58037.847924</v>
+        <v>58037.847924000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>16.121624</v>
+        <v>16.121624000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.800000</v>
+        <v>1362.8</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.181000</v>
+        <v>-179.18100000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>58048.321478</v>
+        <v>58048.321477999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>16.124534</v>
+        <v>16.124534000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1383.910000</v>
+        <v>1383.91</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.263000</v>
+        <v>-209.26300000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>58058.918474</v>
+        <v>58058.918473999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.127477</v>
+        <v>16.127476999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1406.030000</v>
+        <v>1406.03</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.085000</v>
+        <v>-253.08500000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>58069.906599</v>
+        <v>58069.906599000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.130530</v>
+        <v>16.13053</v>
       </c>
       <c r="AV4" s="1">
-        <v>1431.230000</v>
+        <v>1431.23</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.831000</v>
+        <v>-312.83100000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>58081.389242</v>
+        <v>58081.389241999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>16.133719</v>
+        <v>16.133718999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1451.010000</v>
+        <v>1451.01</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.638000</v>
+        <v>-364.63799999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>58092.414300</v>
+        <v>58092.414299999997</v>
       </c>
       <c r="BE4" s="1">
         <v>16.136782</v>
       </c>
       <c r="BF4" s="1">
-        <v>1537.990000</v>
+        <v>1537.99</v>
       </c>
       <c r="BG4" s="1">
-        <v>-610.818000</v>
+        <v>-610.81799999999998</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>58103.536916</v>
+        <v>58103.536915999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>16.139871</v>
+        <v>16.139870999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1694.790000</v>
+        <v>1694.79</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1050.650000</v>
+        <v>-1050.6500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>58114.723856</v>
+        <v>58114.723855999997</v>
       </c>
       <c r="BO4" s="1">
         <v>16.142979</v>
       </c>
       <c r="BP4" s="1">
-        <v>1992.820000</v>
+        <v>1992.82</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1809.100000</v>
+        <v>-1809.1</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>58125.190929</v>
+        <v>58125.190928999997</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.145886</v>
+        <v>16.145886000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2383.880000</v>
+        <v>2383.88</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2682.880000</v>
+        <v>-2682.88</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>58136.373730</v>
+        <v>58136.373729999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.148993</v>
+        <v>16.148993000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2868.300000</v>
+        <v>2868.3</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3627.350000</v>
+        <v>-3627.35</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>58147.658709</v>
+        <v>58147.658709000003</v>
       </c>
       <c r="CD4" s="1">
         <v>16.152127</v>
       </c>
       <c r="CE4" s="1">
-        <v>4289.440000</v>
+        <v>4289.4399999999996</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5900.300000</v>
+        <v>-5900.3</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>57975.437320</v>
+        <v>57975.437319999997</v>
       </c>
       <c r="B5" s="1">
         <v>16.104288</v>
       </c>
       <c r="C5" s="1">
-        <v>1249.180000</v>
+        <v>1249.18</v>
       </c>
       <c r="D5" s="1">
-        <v>-304.284000</v>
+        <v>-304.28399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>57985.496187</v>
+        <v>57985.496186999997</v>
       </c>
       <c r="G5" s="1">
-        <v>16.107082</v>
+        <v>16.107081999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>1273.650000</v>
+        <v>1273.6500000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-262.235000</v>
+        <v>-262.23500000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>57995.700910</v>
+        <v>57995.70091</v>
       </c>
       <c r="L5" s="1">
-        <v>16.109917</v>
+        <v>16.109916999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1307.420000</v>
+        <v>1307.42</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.308000</v>
+        <v>-201.30799999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>58006.224016</v>
       </c>
       <c r="Q5" s="1">
-        <v>16.112840</v>
+        <v>16.112839999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1319.250000</v>
+        <v>1319.25</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.633000</v>
+        <v>-183.63300000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>58017.122624</v>
+        <v>58017.122624000003</v>
       </c>
       <c r="V5" s="1">
-        <v>16.115867</v>
+        <v>16.115867000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.690000</v>
+        <v>-170.69</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>58027.617442</v>
+        <v>58027.617442000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.118783</v>
+        <v>16.118783000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1349.710000</v>
+        <v>1349.71</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.054000</v>
+        <v>-169.054</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>58038.193141</v>
+        <v>58038.193141000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.121720</v>
+        <v>16.12172</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.730000</v>
+        <v>1362.73</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.133000</v>
+        <v>-179.13300000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>58048.671127</v>
+        <v>58048.671127000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.124631</v>
+        <v>16.124631000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1383.890000</v>
+        <v>1383.89</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.226000</v>
+        <v>-209.226</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>58059.593529</v>
+        <v>58059.593528999998</v>
       </c>
       <c r="AP5" s="1">
         <v>16.127665</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1406.080000</v>
+        <v>1406.08</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.090000</v>
+        <v>-253.09</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>58070.591858</v>
       </c>
       <c r="AU5" s="1">
-        <v>16.130720</v>
+        <v>16.13072</v>
       </c>
       <c r="AV5" s="1">
-        <v>1431.190000</v>
+        <v>1431.19</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.813000</v>
+        <v>-312.81299999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>58081.797434</v>
       </c>
       <c r="AZ5" s="1">
-        <v>16.133833</v>
+        <v>16.133832999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.000000</v>
+        <v>1451</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.606000</v>
+        <v>-364.60599999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>58092.793243</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.136887</v>
+        <v>16.136887000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1537.990000</v>
+        <v>1537.99</v>
       </c>
       <c r="BG5" s="1">
-        <v>-610.828000</v>
+        <v>-610.82799999999997</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>58103.914045</v>
+        <v>58103.914044999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.139976</v>
+        <v>16.139976000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1694.870000</v>
+        <v>1694.87</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1050.600000</v>
+        <v>-1050.5999999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>58115.124158</v>
+        <v>58115.124157999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>16.143090</v>
+        <v>16.143090000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1992.820000</v>
+        <v>1992.82</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1809.180000</v>
+        <v>-1809.18</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>58125.620466</v>
@@ -1462,75 +1878,75 @@
         <v>16.146006</v>
       </c>
       <c r="BU5" s="1">
-        <v>2383.910000</v>
+        <v>2383.91</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2682.810000</v>
+        <v>-2682.81</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>58136.844433</v>
+        <v>58136.844432999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>16.149123</v>
+        <v>16.149122999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2868.840000</v>
+        <v>2868.84</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3627.320000</v>
+        <v>-3627.32</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>58148.195876</v>
+        <v>58148.195875999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>16.152277</v>
+        <v>16.152277000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>4282.660000</v>
+        <v>4282.66</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5883.140000</v>
+        <v>-5883.14</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>57975.778072</v>
+        <v>57975.778072000001</v>
       </c>
       <c r="B6" s="1">
-        <v>16.104383</v>
+        <v>16.104382999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1249.450000</v>
+        <v>1249.45</v>
       </c>
       <c r="D6" s="1">
-        <v>-304.406000</v>
+        <v>-304.40600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>57985.839454</v>
+        <v>57985.839454000001</v>
       </c>
       <c r="G6" s="1">
-        <v>16.107178</v>
+        <v>16.107178000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.830000</v>
+        <v>1273.83</v>
       </c>
       <c r="I6" s="1">
-        <v>-262.092000</v>
+        <v>-262.09199999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>57996.389851</v>
@@ -1539,949 +1955,949 @@
         <v>16.110108</v>
       </c>
       <c r="M6" s="1">
-        <v>1307.590000</v>
+        <v>1307.5899999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.056000</v>
+        <v>-201.05600000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>58006.917938</v>
+        <v>58006.917937999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.113033</v>
+        <v>16.113033000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1319.250000</v>
+        <v>1319.25</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.634000</v>
+        <v>-183.63399999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>58017.473761</v>
+        <v>58017.473761000001</v>
       </c>
       <c r="V6" s="1">
-        <v>16.115965</v>
+        <v>16.115964999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1332.240000</v>
+        <v>1332.24</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.690000</v>
+        <v>-170.69</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>58027.969105</v>
+        <v>58027.969104999996</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.118880</v>
+        <v>16.118880000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1349.680000</v>
+        <v>1349.68</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.861000</v>
+        <v>-168.86099999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>58038.536373</v>
+        <v>58038.536373000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.121816</v>
+        <v>16.121815999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.770000</v>
+        <v>1362.77</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.113000</v>
+        <v>-179.113</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>58049.329850</v>
+        <v>58049.329850000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>16.124814</v>
+        <v>16.124814000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1383.870000</v>
+        <v>1383.87</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.259000</v>
+        <v>-209.25899999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>58059.998264</v>
+        <v>58059.998264000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>16.127777</v>
+        <v>16.127776999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1406.040000</v>
+        <v>1406.04</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.078000</v>
+        <v>-253.078</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>58071.027340</v>
+        <v>58071.027340000001</v>
       </c>
       <c r="AU6" s="1">
         <v>16.130841</v>
       </c>
       <c r="AV6" s="1">
-        <v>1431.260000</v>
+        <v>1431.26</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.853000</v>
+        <v>-312.85300000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>58082.184810</v>
+        <v>58082.184809999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>16.133940</v>
+        <v>16.133939999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1450.990000</v>
+        <v>1450.99</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.628000</v>
+        <v>-364.62799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>58093.153837</v>
+        <v>58093.153836999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>16.136987</v>
+        <v>16.136987000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1537.970000</v>
+        <v>1537.97</v>
       </c>
       <c r="BG6" s="1">
-        <v>-610.862000</v>
+        <v>-610.86199999999997</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>58104.302908</v>
+        <v>58104.302907999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>16.140084</v>
+        <v>16.140084000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1694.830000</v>
+        <v>1694.83</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1050.590000</v>
+        <v>-1050.5899999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>58115.546223</v>
+        <v>58115.546222999998</v>
       </c>
       <c r="BO6" s="1">
         <v>16.143207</v>
       </c>
       <c r="BP6" s="1">
-        <v>1992.910000</v>
+        <v>1992.91</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1809.260000</v>
+        <v>-1809.26</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>58126.033633</v>
+        <v>58126.033632999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>16.146120</v>
+        <v>16.14612</v>
       </c>
       <c r="BU6" s="1">
-        <v>2384.110000</v>
+        <v>2384.11</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2683.140000</v>
+        <v>-2683.14</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>58137.277937</v>
+        <v>58137.277936999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>16.149244</v>
+        <v>16.149243999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2869.160000</v>
+        <v>2869.16</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3626.710000</v>
+        <v>-3626.71</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>58148.737507</v>
+        <v>58148.737506999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>16.152427</v>
+        <v>16.152426999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4275.480000</v>
+        <v>4275.4799999999996</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5902.460000</v>
+        <v>-5902.46</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>57976.460069</v>
+        <v>57976.460069000001</v>
       </c>
       <c r="B7" s="1">
-        <v>16.104572</v>
+        <v>16.104572000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="D7" s="1">
-        <v>-304.508000</v>
+        <v>-304.50799999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>57986.532825</v>
+        <v>57986.532825000002</v>
       </c>
       <c r="G7" s="1">
-        <v>16.107370</v>
+        <v>16.10737</v>
       </c>
       <c r="H7" s="1">
-        <v>1273.020000</v>
+        <v>1273.02</v>
       </c>
       <c r="I7" s="1">
-        <v>-262.349000</v>
+        <v>-262.34899999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>57996.739500</v>
+        <v>57996.739500000003</v>
       </c>
       <c r="L7" s="1">
-        <v>16.110205</v>
+        <v>16.110205000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1307.580000</v>
+        <v>1307.58</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.380000</v>
+        <v>-201.38</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>58007.268112</v>
+        <v>58007.268111999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.113130</v>
+        <v>16.113130000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1319.230000</v>
+        <v>1319.23</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.697000</v>
+        <v>-183.697</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>58017.823439</v>
       </c>
       <c r="V7" s="1">
-        <v>16.116062</v>
+        <v>16.116061999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1332.310000</v>
+        <v>1332.31</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.426000</v>
+        <v>-170.42599999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>58028.626317</v>
+        <v>58028.626317000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.119063</v>
+        <v>16.119063000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1349.500000</v>
+        <v>1349.5</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.059000</v>
+        <v>-169.059</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>58039.205475</v>
+        <v>58039.205475000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>16.122002</v>
+        <v>16.122001999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1362.800000</v>
+        <v>1362.8</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.136000</v>
+        <v>-179.136</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>58049.715702</v>
+        <v>58049.715702000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>16.124921</v>
+        <v>16.124921000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1383.850000</v>
+        <v>1383.85</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.237000</v>
+        <v>-209.23699999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>58060.381670</v>
+        <v>58060.381670000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>16.127884</v>
+        <v>16.127884000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1406.040000</v>
+        <v>1406.04</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.082000</v>
+        <v>-253.08199999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>58071.394376</v>
+        <v>58071.394375999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.130943</v>
+        <v>16.130942999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1431.200000</v>
+        <v>1431.2</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.850000</v>
+        <v>-312.85000000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>58082.564745</v>
+        <v>58082.564745000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>16.134046</v>
+        <v>16.134046000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1450.950000</v>
+        <v>1450.95</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.607000</v>
+        <v>-364.60700000000003</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>58093.584363</v>
+        <v>58093.584363000002</v>
       </c>
       <c r="BE7" s="1">
         <v>16.137107</v>
       </c>
       <c r="BF7" s="1">
-        <v>1537.940000</v>
+        <v>1537.94</v>
       </c>
       <c r="BG7" s="1">
-        <v>-610.808000</v>
+        <v>-610.80799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>58104.727485</v>
+        <v>58104.727485000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>16.140202</v>
+        <v>16.140201999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1694.840000</v>
+        <v>1694.84</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1050.610000</v>
+        <v>-1050.6099999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>58115.940542</v>
+        <v>58115.940541999997</v>
       </c>
       <c r="BO7" s="1">
         <v>16.143317</v>
       </c>
       <c r="BP7" s="1">
-        <v>1992.780000</v>
+        <v>1992.78</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1809.120000</v>
+        <v>-1809.12</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>58126.459727</v>
+        <v>58126.459727000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>16.146239</v>
+        <v>16.146239000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2384.220000</v>
+        <v>2384.2199999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2682.720000</v>
+        <v>-2682.72</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>58137.702512</v>
+        <v>58137.702512000003</v>
       </c>
       <c r="BY7" s="1">
         <v>16.149362</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2868.740000</v>
+        <v>2868.74</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3626.830000</v>
+        <v>-3626.83</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>58149.279670</v>
+        <v>58149.279670000004</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.152578</v>
+        <v>16.152577999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>4290.830000</v>
+        <v>4290.83</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5883.110000</v>
+        <v>-5883.11</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>57976.809749</v>
       </c>
       <c r="B8" s="1">
-        <v>16.104669</v>
+        <v>16.104669000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="D8" s="1">
-        <v>-304.181000</v>
+        <v>-304.18099999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>57986.883509</v>
+        <v>57986.883508999999</v>
       </c>
       <c r="G8" s="1">
-        <v>16.107468</v>
+        <v>16.107468000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1273.870000</v>
+        <v>1273.8699999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-263.574000</v>
+        <v>-263.57400000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>57997.086202</v>
+        <v>57997.086201999999</v>
       </c>
       <c r="L8" s="1">
-        <v>16.110302</v>
+        <v>16.110302000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.500000</v>
+        <v>1307.5</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.418000</v>
+        <v>-201.41800000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>58007.930237</v>
       </c>
       <c r="Q8" s="1">
-        <v>16.113314</v>
+        <v>16.113313999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1319.120000</v>
+        <v>1319.12</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.616000</v>
+        <v>-183.61600000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>58018.461801</v>
+        <v>58018.461800999998</v>
       </c>
       <c r="V8" s="1">
         <v>16.116239</v>
       </c>
       <c r="W8" s="1">
-        <v>1332.220000</v>
+        <v>1332.22</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.595000</v>
+        <v>-170.595</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>58029.009712</v>
+        <v>58029.009711999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>16.119169</v>
+        <v>16.119168999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1349.680000</v>
+        <v>1349.68</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.177000</v>
+        <v>-169.17699999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>58039.575001</v>
+        <v>58039.575000999997</v>
       </c>
       <c r="AF8" s="1">
         <v>16.122104</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.780000</v>
+        <v>1362.78</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.106000</v>
+        <v>-179.10599999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>58050.055957</v>
+        <v>58050.055956999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.125016</v>
+        <v>16.125015999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1383.860000</v>
+        <v>1383.86</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.208000</v>
+        <v>-209.208</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>58060.742294</v>
+        <v>58060.742294000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>16.127984</v>
+        <v>16.127984000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1406.030000</v>
+        <v>1406.03</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.068000</v>
+        <v>-253.06800000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>58071.758905</v>
+        <v>58071.758905000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>16.131044</v>
+        <v>16.131043999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1431.230000</v>
+        <v>1431.23</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.823000</v>
+        <v>-312.82299999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>58082.998784</v>
+        <v>58082.998784000003</v>
       </c>
       <c r="AZ8" s="1">
         <v>16.134166</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.010000</v>
+        <v>1451.01</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.673000</v>
+        <v>-364.673</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>58093.877995</v>
+        <v>58093.877995000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>16.137188</v>
+        <v>16.137187999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1537.950000</v>
+        <v>1537.95</v>
       </c>
       <c r="BG8" s="1">
-        <v>-610.811000</v>
+        <v>-610.81100000000004</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>58105.058315</v>
+        <v>58105.058315000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>16.140294</v>
+        <v>16.140294000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1694.790000</v>
+        <v>1694.79</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1050.510000</v>
+        <v>-1050.51</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>58116.360157</v>
+        <v>58116.360157000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>16.143433</v>
+        <v>16.143433000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1992.640000</v>
+        <v>1992.64</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1809.130000</v>
+        <v>-1809.13</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>58126.872901</v>
+        <v>58126.872901000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>16.146354</v>
+        <v>16.146353999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2384.220000</v>
+        <v>2384.2199999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2682.690000</v>
+        <v>-2682.69</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>58138.262991</v>
+        <v>58138.262991000003</v>
       </c>
       <c r="BY8" s="1">
-        <v>16.149517</v>
+        <v>16.149516999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2868.570000</v>
+        <v>2868.57</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3626.960000</v>
+        <v>-3626.96</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>58149.824737</v>
+        <v>58149.824737000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.152729</v>
+        <v>16.152729000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4272.940000</v>
+        <v>4272.9399999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5892.440000</v>
+        <v>-5892.44</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>57977.145044</v>
+        <v>57977.145043999997</v>
       </c>
       <c r="B9" s="1">
-        <v>16.104763</v>
+        <v>16.104762999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>1249.290000</v>
+        <v>1249.29</v>
       </c>
       <c r="D9" s="1">
-        <v>-304.347000</v>
+        <v>-304.34699999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>57987.225737</v>
+        <v>57987.225737000001</v>
       </c>
       <c r="G9" s="1">
-        <v>16.107563</v>
+        <v>16.107562999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1274.300000</v>
+        <v>1274.3</v>
       </c>
       <c r="I9" s="1">
-        <v>-262.204000</v>
+        <v>-262.20400000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>57997.756795</v>
+        <v>57997.756795000001</v>
       </c>
       <c r="L9" s="1">
         <v>16.110488</v>
       </c>
       <c r="M9" s="1">
-        <v>1307.890000</v>
+        <v>1307.8900000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.926000</v>
+        <v>-200.92599999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>58008.312188</v>
+        <v>58008.312188000004</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.113420</v>
+        <v>16.113420000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1319.150000</v>
+        <v>1319.15</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.554000</v>
+        <v>-183.554</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>58018.844340</v>
+        <v>58018.844340000003</v>
       </c>
       <c r="V9" s="1">
         <v>16.116346</v>
       </c>
       <c r="W9" s="1">
-        <v>1332.230000</v>
+        <v>1332.23</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.679000</v>
+        <v>-170.679</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>58029.362369</v>
+        <v>58029.362369000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.119267</v>
+        <v>16.119267000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.770000</v>
+        <v>1349.77</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.977000</v>
+        <v>-168.977</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>58039.922689</v>
+        <v>58039.922688999999</v>
       </c>
       <c r="AF9" s="1">
         <v>16.122201</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.740000</v>
+        <v>1362.74</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.104000</v>
+        <v>-179.10400000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>58050.413077</v>
+        <v>58050.413076999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>16.125115</v>
+        <v>16.125115000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1383.820000</v>
+        <v>1383.82</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.240000</v>
+        <v>-209.24</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>58061.171301</v>
+        <v>58061.171301000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>16.128103</v>
+        <v>16.128102999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1406.090000</v>
+        <v>1406.09</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.059000</v>
+        <v>-253.059</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>58072.249943</v>
+        <v>58072.249943000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.131181</v>
+        <v>16.131181000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1431.250000</v>
+        <v>1431.25</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.834000</v>
+        <v>-312.834</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>58083.280968</v>
+        <v>58083.280967999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>16.134245</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.000000</v>
+        <v>1451</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.560000</v>
+        <v>-364.56</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>58094.237724</v>
+        <v>58094.237723999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>16.137288</v>
+        <v>16.137288000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1537.940000</v>
+        <v>1537.94</v>
       </c>
       <c r="BG9" s="1">
-        <v>-610.775000</v>
+        <v>-610.77499999999998</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>58105.444699</v>
       </c>
       <c r="BJ9" s="1">
-        <v>16.140401</v>
+        <v>16.140401000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1694.810000</v>
+        <v>1694.81</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1050.520000</v>
+        <v>-1050.52</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>58116.757484</v>
+        <v>58116.757484000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>16.143544</v>
+        <v>16.143543999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1992.830000</v>
+        <v>1992.83</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1809.010000</v>
+        <v>-1809.01</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>58127.302399</v>
@@ -2490,1647 +2906,1647 @@
         <v>16.146473</v>
       </c>
       <c r="BU9" s="1">
-        <v>2384.360000</v>
+        <v>2384.36</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2682.610000</v>
+        <v>-2682.61</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>58138.539759</v>
+        <v>58138.539758999999</v>
       </c>
       <c r="BY9" s="1">
         <v>16.149594</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2868.480000</v>
+        <v>2868.48</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3626.940000</v>
+        <v>-3626.94</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>58150.356955</v>
+        <v>58150.356955000003</v>
       </c>
       <c r="CD9" s="1">
         <v>16.152877</v>
       </c>
       <c r="CE9" s="1">
-        <v>4290.690000</v>
+        <v>4290.6899999999996</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5897.840000</v>
+        <v>-5897.84</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>57977.802281</v>
+        <v>57977.802280999997</v>
       </c>
       <c r="B10" s="1">
-        <v>16.104945</v>
+        <v>16.104945000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1249.410000</v>
+        <v>1249.4100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-304.462000</v>
+        <v>-304.46199999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>57987.886938</v>
+        <v>57987.886938000003</v>
       </c>
       <c r="G10" s="1">
-        <v>16.107746</v>
+        <v>16.107745999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1273.530000</v>
+        <v>1273.53</v>
       </c>
       <c r="I10" s="1">
-        <v>-262.595000</v>
+        <v>-262.59500000000003</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>57998.122344</v>
+        <v>57998.122344000003</v>
       </c>
       <c r="L10" s="1">
-        <v>16.110590</v>
+        <v>16.110589999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>1307.840000</v>
+        <v>1307.8399999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.164000</v>
+        <v>-201.16399999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>58008.662827</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.113517</v>
+        <v>16.113517000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>1319.250000</v>
+        <v>1319.25</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.581000</v>
+        <v>-183.58099999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>58019.189421</v>
+        <v>58019.189421000003</v>
       </c>
       <c r="V10" s="1">
-        <v>16.116442</v>
+        <v>16.116441999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1332.100000</v>
+        <v>1332.1</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.627000</v>
+        <v>-170.62700000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>58029.710560</v>
+        <v>58029.71056</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.119364</v>
+        <v>16.119364000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.490000</v>
+        <v>1349.49</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.071000</v>
+        <v>-169.071</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>58040.347265</v>
+        <v>58040.347264999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>16.122319</v>
+        <v>16.122319000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.780000</v>
+        <v>1362.78</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.132000</v>
+        <v>-179.13200000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>58050.832724</v>
       </c>
       <c r="AK10" s="1">
-        <v>16.125231</v>
+        <v>16.125230999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1383.870000</v>
+        <v>1383.87</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.250000</v>
+        <v>-209.25</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>58061.461462</v>
+        <v>58061.461461999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>16.128184</v>
+        <v>16.128184000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1406.060000</v>
+        <v>1406.06</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.077000</v>
+        <v>-253.077</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>58072.485544</v>
+        <v>58072.485544000003</v>
       </c>
       <c r="AU10" s="1">
-        <v>16.131246</v>
+        <v>16.131246000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1431.270000</v>
+        <v>1431.27</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.820000</v>
+        <v>-312.82</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>58083.643049</v>
+        <v>58083.643048999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>16.134345</v>
       </c>
       <c r="BA10" s="1">
-        <v>1450.980000</v>
+        <v>1450.98</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.618000</v>
+        <v>-364.61799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>58094.598681</v>
+        <v>58094.598681000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.137389</v>
+        <v>16.137388999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1537.940000</v>
+        <v>1537.94</v>
       </c>
       <c r="BG10" s="1">
-        <v>-610.792000</v>
+        <v>-610.79200000000003</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>58106.194154</v>
+        <v>58106.194153999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>16.140609</v>
+        <v>16.140609000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1694.740000</v>
+        <v>1694.74</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1050.590000</v>
+        <v>-1050.5899999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>58117.179051</v>
+        <v>58117.179050999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.143661</v>
+        <v>16.143661000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1992.740000</v>
+        <v>1992.74</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1808.990000</v>
+        <v>-1808.99</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>58127.731935</v>
+        <v>58127.731935000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>16.146592</v>
+        <v>16.146591999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>2384.570000</v>
+        <v>2384.5700000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2682.570000</v>
+        <v>-2682.57</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>58138.990623</v>
+        <v>58138.990622999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>16.149720</v>
+        <v>16.149719999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2868.040000</v>
+        <v>2868.04</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3626.980000</v>
+        <v>-3626.98</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>58150.898079</v>
+        <v>58150.898078999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.153027</v>
+        <v>16.153027000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>4280.130000</v>
+        <v>4280.13</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5883.620000</v>
+        <v>-5883.62</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>57978.169283</v>
+        <v>57978.169283000003</v>
       </c>
       <c r="B11" s="1">
-        <v>16.105047</v>
+        <v>16.105046999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="D11" s="1">
-        <v>-304.473000</v>
+        <v>-304.47300000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>57988.261382</v>
+        <v>57988.261381999997</v>
       </c>
       <c r="G11" s="1">
-        <v>16.107850</v>
+        <v>16.107849999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1273.530000</v>
+        <v>1273.53</v>
       </c>
       <c r="I11" s="1">
-        <v>-262.318000</v>
+        <v>-262.31799999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>57998.467560</v>
+        <v>57998.467559999997</v>
       </c>
       <c r="L11" s="1">
         <v>16.110685</v>
       </c>
       <c r="M11" s="1">
-        <v>1307.580000</v>
+        <v>1307.58</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.963000</v>
+        <v>-200.96299999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>58009.008538</v>
+        <v>58009.008538000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.113613</v>
+        <v>16.113613000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1319.310000</v>
+        <v>1319.31</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.587000</v>
+        <v>-183.58699999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>58019.533148</v>
+        <v>58019.533148000002</v>
       </c>
       <c r="V11" s="1">
-        <v>16.116537</v>
+        <v>16.116537000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1332.140000</v>
+        <v>1332.14</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.594000</v>
+        <v>-170.59399999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>58030.143567</v>
+        <v>58030.143566999999</v>
       </c>
       <c r="AA11" s="1">
         <v>16.119484</v>
       </c>
       <c r="AB11" s="1">
-        <v>1349.310000</v>
+        <v>1349.31</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.107000</v>
+        <v>-169.107</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>58040.625778</v>
+        <v>58040.625778000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>16.122396</v>
+        <v>16.122395999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.770000</v>
+        <v>1362.77</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.119000</v>
+        <v>-179.119</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>58051.126324</v>
+        <v>58051.126323999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.125313</v>
+        <v>16.125312999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1383.880000</v>
+        <v>1383.88</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.256000</v>
+        <v>-209.256</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>58061.825028</v>
+        <v>58061.825027999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>16.128285</v>
+        <v>16.128285000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1406.090000</v>
+        <v>1406.09</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.095000</v>
+        <v>-253.095</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>58072.850102</v>
+        <v>58072.850101999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.131347</v>
+        <v>16.131347000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1431.220000</v>
+        <v>1431.22</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.816000</v>
+        <v>-312.81599999999997</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>58083.999177</v>
+        <v>58083.999176999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.134444</v>
+        <v>16.134443999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1450.960000</v>
+        <v>1450.96</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.624000</v>
+        <v>-364.62400000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>58095.319864</v>
+        <v>58095.319863999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>16.137589</v>
+        <v>16.137588999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1537.940000</v>
+        <v>1537.94</v>
       </c>
       <c r="BG11" s="1">
-        <v>-610.804000</v>
+        <v>-610.80399999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>58106.569628</v>
+        <v>58106.569627999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>16.140714</v>
+        <v>16.140713999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1694.770000</v>
+        <v>1694.77</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1050.500000</v>
+        <v>-1050.5</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>58117.577372</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.143771</v>
+        <v>16.143771000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1992.690000</v>
+        <v>1992.69</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1809.000000</v>
+        <v>-1809</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>58128.143121</v>
+        <v>58128.143121000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>16.146706</v>
+        <v>16.146705999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>2384.420000</v>
+        <v>2384.42</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2682.340000</v>
+        <v>-2682.34</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>58139.767358</v>
+        <v>58139.767357999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.149935</v>
+        <v>16.149934999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2868.300000</v>
+        <v>2868.3</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3626.770000</v>
+        <v>-3626.77</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>58151.763134</v>
+        <v>58151.763134000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.153268</v>
+        <v>16.153268000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4290.630000</v>
+        <v>4290.63</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5892.410000</v>
+        <v>-5892.41</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>57978.514607</v>
+        <v>57978.514606999997</v>
       </c>
       <c r="B12" s="1">
-        <v>16.105143</v>
+        <v>16.105143000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1248.850000</v>
+        <v>1248.8499999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-304.342000</v>
+        <v>-304.34199999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>57988.607125</v>
+        <v>57988.607125000002</v>
       </c>
       <c r="G12" s="1">
-        <v>16.107946</v>
+        <v>16.107945999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1273.890000</v>
+        <v>1273.8900000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-262.421000</v>
+        <v>-262.42099999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>57998.815752</v>
+        <v>57998.815752000002</v>
       </c>
       <c r="L12" s="1">
         <v>16.110782</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.450000</v>
+        <v>1307.45</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.203000</v>
+        <v>-201.203</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>58009.428651</v>
+        <v>58009.428651000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.113730</v>
+        <v>16.11373</v>
       </c>
       <c r="R12" s="1">
-        <v>1319.200000</v>
+        <v>1319.2</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.741000</v>
+        <v>-183.74100000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>58019.968677</v>
+        <v>58019.968676999997</v>
       </c>
       <c r="V12" s="1">
-        <v>16.116658</v>
+        <v>16.116658000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1332.190000</v>
+        <v>1332.19</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.808000</v>
+        <v>-170.80799999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>58030.424830</v>
+        <v>58030.424830000004</v>
       </c>
       <c r="AA12" s="1">
-        <v>16.119562</v>
+        <v>16.119561999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>1349.650000</v>
+        <v>1349.65</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.103000</v>
+        <v>-169.10300000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>58040.970737</v>
+        <v>58040.970737000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.122492</v>
+        <v>16.122492000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.770000</v>
+        <v>1362.77</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.097000</v>
+        <v>-179.09700000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>58051.476498</v>
+        <v>58051.476498000004</v>
       </c>
       <c r="AK12" s="1">
-        <v>16.125410</v>
+        <v>16.125409999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1383.850000</v>
+        <v>1383.85</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.234000</v>
+        <v>-209.23400000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>58062.180196</v>
+        <v>58062.180196000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>16.128383</v>
+        <v>16.128382999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1406.090000</v>
+        <v>1406.09</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.091000</v>
+        <v>-253.09100000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>58073.577770</v>
+        <v>58073.577770000004</v>
       </c>
       <c r="AU12" s="1">
         <v>16.131549</v>
       </c>
       <c r="AV12" s="1">
-        <v>1431.210000</v>
+        <v>1431.21</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.852000</v>
+        <v>-312.85199999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>58084.714408</v>
       </c>
       <c r="AZ12" s="1">
-        <v>16.134643</v>
+        <v>16.134643000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1450.950000</v>
+        <v>1450.95</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.643000</v>
+        <v>-364.64299999999997</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>58095.709756</v>
+        <v>58095.709755999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>16.137697</v>
+        <v>16.137696999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1537.920000</v>
+        <v>1537.92</v>
       </c>
       <c r="BG12" s="1">
-        <v>-610.790000</v>
+        <v>-610.79</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>58106.944107</v>
+        <v>58106.944107000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>16.140818</v>
+        <v>16.140817999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1694.750000</v>
+        <v>1694.75</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1050.540000</v>
+        <v>-1050.54</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>58117.993482</v>
+        <v>58117.993481999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.143887</v>
+        <v>16.143886999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1992.800000</v>
+        <v>1992.8</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1808.910000</v>
+        <v>-1808.91</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>58128.879180</v>
+        <v>58128.879180000004</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.146911</v>
+        <v>16.146910999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2384.650000</v>
+        <v>2384.65</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2682.000000</v>
+        <v>-2682</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>58139.893342</v>
+        <v>58139.893342000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.149970</v>
+        <v>16.14997</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2867.690000</v>
+        <v>2867.69</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3626.930000</v>
+        <v>-3626.93</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>58151.974932</v>
+        <v>58151.974931999997</v>
       </c>
       <c r="CD12" s="1">
         <v>16.153326</v>
       </c>
       <c r="CE12" s="1">
-        <v>4292.170000</v>
+        <v>4292.17</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5893.470000</v>
+        <v>-5893.47</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>57978.852803</v>
+        <v>57978.852803000002</v>
       </c>
       <c r="B13" s="1">
-        <v>16.105237</v>
+        <v>16.105236999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1249.000000</v>
+        <v>1249</v>
       </c>
       <c r="D13" s="1">
-        <v>-304.555000</v>
+        <v>-304.55500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>57988.956773</v>
+        <v>57988.956772999998</v>
       </c>
       <c r="G13" s="1">
         <v>16.108044</v>
       </c>
       <c r="H13" s="1">
-        <v>1273.720000</v>
+        <v>1273.72</v>
       </c>
       <c r="I13" s="1">
-        <v>-262.943000</v>
+        <v>-262.94299999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>57999.247307</v>
+        <v>57999.247306999998</v>
       </c>
       <c r="L13" s="1">
-        <v>16.110902</v>
+        <v>16.110901999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1307.730000</v>
+        <v>1307.73</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.917000</v>
+        <v>-200.917</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>58009.718809</v>
+        <v>58009.718808999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.113811</v>
+        <v>16.113810999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>1319.170000</v>
+        <v>1319.17</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.684000</v>
+        <v>-183.684</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>58020.247423</v>
+        <v>58020.247423000001</v>
       </c>
       <c r="V13" s="1">
-        <v>16.116735</v>
+        <v>16.116734999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>1332.210000</v>
+        <v>1332.21</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.666000</v>
+        <v>-170.666</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>58030.773523</v>
+        <v>58030.773523000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>16.119659</v>
+        <v>16.119658999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1349.850000</v>
+        <v>1349.85</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.135000</v>
+        <v>-169.13499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>58041.312977</v>
+        <v>58041.312977000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>16.122587</v>
+        <v>16.122586999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.770000</v>
+        <v>1362.77</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.081000</v>
+        <v>-179.08099999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>58051.836135</v>
+        <v>58051.836134999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>16.125510</v>
+        <v>16.125509999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1383.860000</v>
+        <v>1383.86</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.225000</v>
+        <v>-209.22499999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>58062.905316</v>
+        <v>58062.905315999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>16.128585</v>
+        <v>16.128585000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1406.040000</v>
+        <v>1406.04</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.047000</v>
+        <v>-253.047</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>58073.973542</v>
       </c>
       <c r="AU13" s="1">
-        <v>16.131659</v>
+        <v>16.131658999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1431.230000</v>
+        <v>1431.23</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.805000</v>
+        <v>-312.80500000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>58085.076022</v>
+        <v>58085.076022000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>16.134743</v>
       </c>
       <c r="BA13" s="1">
-        <v>1450.970000</v>
+        <v>1450.97</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.562000</v>
+        <v>-364.56200000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>58096.068855</v>
+        <v>58096.068854999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>16.137797</v>
+        <v>16.137796999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1537.910000</v>
+        <v>1537.91</v>
       </c>
       <c r="BG13" s="1">
-        <v>-610.797000</v>
+        <v>-610.79700000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>58107.628615</v>
+        <v>58107.628615000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>16.141008</v>
+        <v>16.141007999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1694.800000</v>
+        <v>1694.8</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1050.480000</v>
+        <v>-1050.48</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>58118.703754</v>
+        <v>58118.703754000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>16.144084</v>
+        <v>16.144083999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1992.820000</v>
+        <v>1992.82</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1808.960000</v>
+        <v>-1808.96</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>58129.000700</v>
+        <v>58129.000699999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>16.146945</v>
+        <v>16.146944999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2384.910000</v>
+        <v>2384.91</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2681.810000</v>
+        <v>-2681.81</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>58140.334285</v>
+        <v>58140.334284999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.150093</v>
+        <v>16.150092999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2868.330000</v>
+        <v>2868.33</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3626.990000</v>
+        <v>-3626.99</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>58152.493246</v>
+        <v>58152.493245999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.153470</v>
+        <v>16.153469999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4279.690000</v>
+        <v>4279.6899999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5881.040000</v>
+        <v>-5881.04</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>57979.281842</v>
+        <v>57979.281841999997</v>
       </c>
       <c r="B14" s="1">
         <v>16.105356</v>
       </c>
       <c r="C14" s="1">
-        <v>1249.260000</v>
+        <v>1249.26</v>
       </c>
       <c r="D14" s="1">
-        <v>-304.476000</v>
+        <v>-304.476</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>57989.393748</v>
+        <v>57989.393748000002</v>
       </c>
       <c r="G14" s="1">
         <v>16.108165</v>
       </c>
       <c r="H14" s="1">
-        <v>1273.570000</v>
+        <v>1273.57</v>
       </c>
       <c r="I14" s="1">
-        <v>-262.432000</v>
+        <v>-262.43200000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>57999.519080</v>
+        <v>57999.519079999998</v>
       </c>
       <c r="L14" s="1">
-        <v>16.110978</v>
+        <v>16.110977999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1307.400000</v>
+        <v>1307.4000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.280000</v>
+        <v>-201.28</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>58010.065513</v>
+        <v>58010.065513000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.113907</v>
+        <v>16.113907000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1319.110000</v>
+        <v>1319.11</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.652000</v>
+        <v>-183.65199999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>58020.592107</v>
+        <v>58020.592106999997</v>
       </c>
       <c r="V14" s="1">
-        <v>16.116831</v>
+        <v>16.116831000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1332.130000</v>
+        <v>1332.13</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.674000</v>
+        <v>-170.67400000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>58031.117746</v>
+        <v>58031.117746000004</v>
       </c>
       <c r="AA14" s="1">
-        <v>16.119755</v>
+        <v>16.119755000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1349.690000</v>
+        <v>1349.69</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.075000</v>
+        <v>-169.07499999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>58042.001454</v>
+        <v>58042.001453999997</v>
       </c>
       <c r="AF14" s="1">
         <v>16.122778</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.760000</v>
+        <v>1362.76</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.121000</v>
+        <v>-179.12100000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>58052.520614</v>
+        <v>58052.520614000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>16.125700</v>
+        <v>16.125699999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1383.860000</v>
+        <v>1383.86</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.255000</v>
+        <v>-209.255</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>58063.264465</v>
       </c>
       <c r="AP14" s="1">
-        <v>16.128685</v>
+        <v>16.128685000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1406.050000</v>
+        <v>1406.05</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.048000</v>
+        <v>-253.048</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>58074.335158</v>
+        <v>58074.335158000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.131760</v>
+        <v>16.13176</v>
       </c>
       <c r="AV14" s="1">
-        <v>1431.230000</v>
+        <v>1431.23</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.814000</v>
+        <v>-312.81400000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>58085.438434</v>
+        <v>58085.438434000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>16.134844</v>
+        <v>16.134844000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1450.990000</v>
+        <v>1450.99</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.623000</v>
+        <v>-364.62299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>58096.740938</v>
+        <v>58096.740938000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>16.137984</v>
+        <v>16.137983999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1537.930000</v>
+        <v>1537.93</v>
       </c>
       <c r="BG14" s="1">
-        <v>-610.830000</v>
+        <v>-610.83000000000004</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>58108.069786</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.141130</v>
+        <v>16.14113</v>
       </c>
       <c r="BK14" s="1">
-        <v>1694.770000</v>
+        <v>1694.77</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1050.520000</v>
+        <v>-1050.52</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>58118.815353</v>
+        <v>58118.815352999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>16.144115</v>
+        <v>16.144114999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1992.740000</v>
+        <v>1992.74</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1808.810000</v>
+        <v>-1808.81</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>58129.413373</v>
+        <v>58129.413373000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>16.147059</v>
+        <v>16.147058999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2384.910000</v>
+        <v>2384.91</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2681.940000</v>
+        <v>-2681.94</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>58140.790108</v>
+        <v>58140.790108000001</v>
       </c>
       <c r="BY14" s="1">
         <v>16.150219</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2868.530000</v>
+        <v>2868.53</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3627.020000</v>
+        <v>-3627.02</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>58153.015824</v>
+        <v>58153.015824000002</v>
       </c>
       <c r="CD14" s="1">
         <v>16.153616</v>
       </c>
       <c r="CE14" s="1">
-        <v>4271.090000</v>
+        <v>4271.09</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5896.940000</v>
+        <v>-5896.94</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>57979.553650</v>
+        <v>57979.553650000002</v>
       </c>
       <c r="B15" s="1">
         <v>16.105432</v>
       </c>
       <c r="C15" s="1">
-        <v>1249.180000</v>
+        <v>1249.18</v>
       </c>
       <c r="D15" s="1">
-        <v>-304.339000</v>
+        <v>-304.339</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>57989.664564</v>
+        <v>57989.664563999999</v>
       </c>
       <c r="G15" s="1">
-        <v>16.108240</v>
+        <v>16.108239999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1273.950000</v>
+        <v>1273.95</v>
       </c>
       <c r="I15" s="1">
-        <v>-263.250000</v>
+        <v>-263.25</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>57999.864823</v>
+        <v>57999.864823000004</v>
       </c>
       <c r="L15" s="1">
-        <v>16.111074</v>
+        <v>16.111073999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.560000</v>
+        <v>1307.56</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.257000</v>
+        <v>-201.25700000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>58010.414200</v>
+        <v>58010.414199999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.114004</v>
+        <v>16.114004000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1319.210000</v>
+        <v>1319.21</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.617000</v>
+        <v>-183.61699999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>58020.934843</v>
+        <v>58020.934843000003</v>
       </c>
       <c r="V15" s="1">
-        <v>16.116926</v>
+        <v>16.116925999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1332.430000</v>
+        <v>1332.43</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.496000</v>
+        <v>-170.49600000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>58031.820551</v>
+        <v>58031.820550999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>16.119950</v>
+        <v>16.119949999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1349.660000</v>
+        <v>1349.66</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.113000</v>
+        <v>-169.113</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>58042.345151</v>
+        <v>58042.345151000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.122874</v>
+        <v>16.122873999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.800000</v>
+        <v>1362.8</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.121000</v>
+        <v>-179.12100000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>58052.871745</v>
+        <v>58052.871744999997</v>
       </c>
       <c r="AK15" s="1">
         <v>16.125798</v>
       </c>
       <c r="AL15" s="1">
-        <v>1383.840000</v>
+        <v>1383.84</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.230000</v>
+        <v>-209.23</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>58063.623703</v>
+        <v>58063.623702999997</v>
       </c>
       <c r="AP15" s="1">
         <v>16.128784</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1406.060000</v>
+        <v>1406.06</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.079000</v>
+        <v>-253.07900000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>58075.007243</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.131946</v>
+        <v>16.131945999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1431.210000</v>
+        <v>1431.21</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.778000</v>
+        <v>-312.77800000000002</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>58086.108662</v>
+        <v>58086.108661999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>16.135030</v>
+        <v>16.13503</v>
       </c>
       <c r="BA15" s="1">
-        <v>1450.950000</v>
+        <v>1450.95</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.620000</v>
+        <v>-364.62</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>58097.185318</v>
+        <v>58097.185318000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>16.138107</v>
+        <v>16.138107000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1537.930000</v>
+        <v>1537.93</v>
       </c>
       <c r="BG15" s="1">
-        <v>-610.762000</v>
+        <v>-610.76199999999994</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>58108.444007</v>
+        <v>58108.444006999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>16.141234</v>
+        <v>16.141234000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1694.730000</v>
+        <v>1694.73</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1050.450000</v>
+        <v>-1050.45</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>58119.238480</v>
+        <v>58119.23848</v>
       </c>
       <c r="BO15" s="1">
         <v>16.144233</v>
       </c>
       <c r="BP15" s="1">
-        <v>1992.660000</v>
+        <v>1992.66</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1809.050000</v>
+        <v>-1809.05</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>58129.844432</v>
+        <v>58129.844431999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.147179</v>
+        <v>16.147179000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2384.710000</v>
+        <v>2384.71</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2681.520000</v>
+        <v>-2681.52</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>58141.237532</v>
+        <v>58141.237531999999</v>
       </c>
       <c r="BY15" s="1">
         <v>16.150344</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2868.330000</v>
+        <v>2868.33</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3626.510000</v>
+        <v>-3626.51</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>58153.537293</v>
+        <v>58153.537293000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>16.153760</v>
+        <v>16.153759999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>4288.230000</v>
+        <v>4288.2299999999996</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5900.980000</v>
+        <v>-5900.98</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>57979.895894</v>
+        <v>57979.895894000001</v>
       </c>
       <c r="B16" s="1">
-        <v>16.105527</v>
+        <v>16.105526999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1249.460000</v>
+        <v>1249.46</v>
       </c>
       <c r="D16" s="1">
-        <v>-304.378000</v>
+        <v>-304.37799999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>57990.022179</v>
       </c>
       <c r="G16" s="1">
-        <v>16.108339</v>
+        <v>16.108339000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1274.210000</v>
+        <v>1274.21</v>
       </c>
       <c r="I16" s="1">
-        <v>-261.672000</v>
+        <v>-261.67200000000003</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>58000.210504</v>
+        <v>58000.210504000002</v>
       </c>
       <c r="L16" s="1">
-        <v>16.111170</v>
+        <v>16.111170000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1307.660000</v>
+        <v>1307.6600000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.141000</v>
+        <v>-201.14099999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>58011.115086</v>
+        <v>58011.115085999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>16.114199</v>
+        <v>16.114198999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1319.330000</v>
+        <v>1319.33</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.570000</v>
+        <v>-183.57</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>58021.620315</v>
@@ -4139,390 +4555,390 @@
         <v>16.117117</v>
       </c>
       <c r="W16" s="1">
-        <v>1332.320000</v>
+        <v>1332.32</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.694000</v>
+        <v>-170.69399999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>58032.164764</v>
+        <v>58032.164764000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>16.120046</v>
+        <v>16.120045999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1349.600000</v>
+        <v>1349.6</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.196000</v>
+        <v>-169.196</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>58042.686398</v>
+        <v>58042.686397999998</v>
       </c>
       <c r="AF16" s="1">
         <v>16.122968</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.820000</v>
+        <v>1362.82</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.104000</v>
+        <v>-179.10400000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>58053.217984</v>
+        <v>58053.217984000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.125894</v>
+        <v>16.125893999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1383.860000</v>
+        <v>1383.86</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.191000</v>
+        <v>-209.191</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>58064.304531</v>
+        <v>58064.304531000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.128973</v>
+        <v>16.128972999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1406.050000</v>
+        <v>1406.05</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.073000</v>
+        <v>-253.07300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>58075.465011</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.132074</v>
+        <v>16.132073999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1431.190000</v>
+        <v>1431.19</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.825000</v>
+        <v>-312.82499999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>58086.508933</v>
+        <v>58086.508932999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>16.135141</v>
+        <v>16.135141000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1450.970000</v>
+        <v>1450.97</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.604000</v>
+        <v>-364.60399999999998</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>58097.548391</v>
+        <v>58097.548390999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.138208</v>
+        <v>16.138207999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1537.920000</v>
+        <v>1537.92</v>
       </c>
       <c r="BG16" s="1">
-        <v>-610.790000</v>
+        <v>-610.79</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>58108.820503</v>
+        <v>58108.820503000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>16.141339</v>
+        <v>16.141338999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1694.720000</v>
+        <v>1694.72</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1050.500000</v>
+        <v>-1050.5</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>58119.632762</v>
+        <v>58119.632762000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>16.144342</v>
+        <v>16.144342000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1992.690000</v>
+        <v>1992.69</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1808.920000</v>
+        <v>-1808.92</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>58130.272938</v>
+        <v>58130.272938000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>16.147298</v>
+        <v>16.147297999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2385.340000</v>
+        <v>2385.34</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2681.560000</v>
+        <v>-2681.56</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>58141.658612</v>
+        <v>58141.658611999999</v>
       </c>
       <c r="BY16" s="1">
         <v>16.150461</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2867.700000</v>
+        <v>2867.7</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3626.600000</v>
+        <v>-3626.6</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>58154.110171</v>
       </c>
       <c r="CD16" s="1">
-        <v>16.153919</v>
+        <v>16.153918999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>4278.980000</v>
+        <v>4278.9799999999996</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5899.430000</v>
+        <v>-5899.43</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>57980.238097</v>
+        <v>57980.238097000001</v>
       </c>
       <c r="B17" s="1">
         <v>16.105622</v>
       </c>
       <c r="C17" s="1">
-        <v>1249.240000</v>
+        <v>1249.24</v>
       </c>
       <c r="D17" s="1">
-        <v>-304.138000</v>
+        <v>-304.13799999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>57990.693267</v>
+        <v>57990.693267000002</v>
       </c>
       <c r="G17" s="1">
-        <v>16.108526</v>
+        <v>16.108526000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1274.810000</v>
+        <v>1274.81</v>
       </c>
       <c r="I17" s="1">
-        <v>-262.452000</v>
+        <v>-262.452</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>58000.904901</v>
+        <v>58000.904901000002</v>
       </c>
       <c r="L17" s="1">
         <v>16.111362</v>
       </c>
       <c r="M17" s="1">
-        <v>1307.510000</v>
+        <v>1307.51</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.087000</v>
+        <v>-201.08699999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>58011.460761</v>
+        <v>58011.460761000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>16.114295</v>
+        <v>16.114294999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1319.250000</v>
+        <v>1319.25</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.617000</v>
+        <v>-183.61699999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>58021.969993</v>
+        <v>58021.969992999999</v>
       </c>
       <c r="V17" s="1">
-        <v>16.117214</v>
+        <v>16.117214000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1332.050000</v>
+        <v>1332.05</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.478000</v>
+        <v>-170.47800000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>58032.516429</v>
+        <v>58032.516429000003</v>
       </c>
       <c r="AA17" s="1">
-        <v>16.120143</v>
+        <v>16.120142999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1349.290000</v>
+        <v>1349.29</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.044000</v>
+        <v>-169.04400000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>58043.346610</v>
+        <v>58043.346610000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>16.123152</v>
+        <v>16.123152000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.810000</v>
+        <v>1362.81</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.086000</v>
+        <v>-179.08600000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>58053.887551</v>
       </c>
       <c r="AK17" s="1">
-        <v>16.126080</v>
+        <v>16.126080000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1383.850000</v>
+        <v>1383.85</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.225000</v>
+        <v>-209.22499999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>58064.726658</v>
       </c>
       <c r="AP17" s="1">
-        <v>16.129091</v>
+        <v>16.129090999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1406.060000</v>
+        <v>1406.06</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.083000</v>
+        <v>-253.083</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>58075.829606</v>
+        <v>58075.829605999999</v>
       </c>
       <c r="AU17" s="1">
         <v>16.132175</v>
       </c>
       <c r="AV17" s="1">
-        <v>1431.210000</v>
+        <v>1431.21</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.791000</v>
+        <v>-312.791</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>58086.896309</v>
+        <v>58086.896309000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.135249</v>
+        <v>16.135249000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1450.950000</v>
+        <v>1450.95</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.577000</v>
+        <v>-364.577</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>58097.909013</v>
+        <v>58097.909012999997</v>
       </c>
       <c r="BE17" s="1">
-        <v>16.138308</v>
+        <v>16.138307999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1537.890000</v>
+        <v>1537.89</v>
       </c>
       <c r="BG17" s="1">
-        <v>-610.727000</v>
+        <v>-610.72699999999998</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>58109.243101</v>
       </c>
       <c r="BJ17" s="1">
-        <v>16.141456</v>
+        <v>16.141456000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1694.760000</v>
+        <v>1694.76</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1050.490000</v>
+        <v>-1050.49</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>58120.058329</v>
@@ -4531,61 +4947,61 @@
         <v>16.144461</v>
       </c>
       <c r="BP17" s="1">
-        <v>1992.730000</v>
+        <v>1992.73</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1808.830000</v>
+        <v>-1808.83</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>58130.680651</v>
+        <v>58130.680651000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>16.147411</v>
+        <v>16.147411000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>2385.060000</v>
+        <v>2385.06</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2681.440000</v>
+        <v>-2681.44</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>58142.081722</v>
+        <v>58142.081722000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>16.150578</v>
+        <v>16.150577999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2868.150000</v>
+        <v>2868.15</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3627.110000</v>
+        <v>-3627.11</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>58154.602699</v>
+        <v>58154.602699000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.154056</v>
+        <v>16.154056000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4270.810000</v>
+        <v>4270.8100000000004</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5896.500000</v>
+        <v>-5896.5</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>57980.922112</v>
       </c>
@@ -4593,360 +5009,360 @@
         <v>16.105812</v>
       </c>
       <c r="C18" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="D18" s="1">
-        <v>-304.444000</v>
+        <v>-304.44400000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>57991.053858</v>
+        <v>57991.053857999999</v>
       </c>
       <c r="G18" s="1">
-        <v>16.108626</v>
+        <v>16.108626000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1273.380000</v>
+        <v>1273.3800000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-262.592000</v>
+        <v>-262.59199999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>58001.256068</v>
+        <v>58001.256068000002</v>
       </c>
       <c r="L18" s="1">
-        <v>16.111460</v>
+        <v>16.111460000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1307.600000</v>
+        <v>1307.5999999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.045000</v>
+        <v>-201.04499999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>58011.823375</v>
       </c>
       <c r="Q18" s="1">
-        <v>16.114395</v>
+        <v>16.114394999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>1319.220000</v>
+        <v>1319.22</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.668000</v>
+        <v>-183.66800000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>58022.311774</v>
+        <v>58022.311774000002</v>
       </c>
       <c r="V18" s="1">
-        <v>16.117309</v>
+        <v>16.117308999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1332.180000</v>
+        <v>1332.18</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.585000</v>
+        <v>-170.58500000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>58033.171680</v>
+        <v>58033.171679999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.120325</v>
+        <v>16.120325000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1349.650000</v>
+        <v>1349.65</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.126000</v>
+        <v>-169.126</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>58043.719100</v>
+        <v>58043.719100000002</v>
       </c>
       <c r="AF18" s="1">
         <v>16.123255</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.800000</v>
+        <v>1362.8</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.105000</v>
+        <v>-179.10499999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>58054.266495</v>
+        <v>58054.266495000003</v>
       </c>
       <c r="AK18" s="1">
         <v>16.126185</v>
       </c>
       <c r="AL18" s="1">
-        <v>1383.860000</v>
+        <v>1383.86</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.253000</v>
+        <v>-209.25299999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>58065.087714</v>
+        <v>58065.087714000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>16.129191</v>
+        <v>16.129190999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1406.040000</v>
+        <v>1406.04</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.041000</v>
+        <v>-253.041</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>58076.194129</v>
+        <v>58076.194129000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>16.132276</v>
+        <v>16.132276000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1431.200000</v>
+        <v>1431.2</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.793000</v>
+        <v>-312.79300000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>58087.257893</v>
+        <v>58087.257893000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>16.135349</v>
+        <v>16.135349000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1450.960000</v>
+        <v>1450.96</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.608000</v>
+        <v>-364.608</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>58098.346980</v>
+        <v>58098.346980000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>16.138430</v>
+        <v>16.13843</v>
       </c>
       <c r="BF18" s="1">
-        <v>1537.970000</v>
+        <v>1537.97</v>
       </c>
       <c r="BG18" s="1">
-        <v>-610.798000</v>
+        <v>-610.798</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>58109.600709</v>
+        <v>58109.600708999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.141556</v>
+        <v>16.141556000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1694.710000</v>
+        <v>1694.71</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1050.440000</v>
+        <v>-1050.44</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>58120.454630</v>
+        <v>58120.45463</v>
       </c>
       <c r="BO18" s="1">
-        <v>16.144571</v>
+        <v>16.144570999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1992.580000</v>
+        <v>1992.58</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1808.770000</v>
+        <v>-1808.77</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>58131.113689</v>
+        <v>58131.113688999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>16.147532</v>
+        <v>16.147532000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>2385.290000</v>
+        <v>2385.29</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2681.300000</v>
+        <v>-2681.3</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>58142.507290</v>
+        <v>58142.507290000001</v>
       </c>
       <c r="BY18" s="1">
         <v>16.150696</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2868.650000</v>
+        <v>2868.65</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3626.540000</v>
+        <v>-3626.54</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>58155.132958</v>
+        <v>58155.132958000002</v>
       </c>
       <c r="CD18" s="1">
         <v>16.154204</v>
       </c>
       <c r="CE18" s="1">
-        <v>4286.980000</v>
+        <v>4286.9799999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5900.390000</v>
+        <v>-5900.39</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>57981.258863</v>
+        <v>57981.258863000003</v>
       </c>
       <c r="B19" s="1">
         <v>16.105905</v>
       </c>
       <c r="C19" s="1">
-        <v>1249.470000</v>
+        <v>1249.47</v>
       </c>
       <c r="D19" s="1">
-        <v>-304.264000</v>
+        <v>-304.26400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>57991.398579</v>
+        <v>57991.398579000001</v>
       </c>
       <c r="G19" s="1">
         <v>16.108722</v>
       </c>
       <c r="H19" s="1">
-        <v>1274.200000</v>
+        <v>1274.2</v>
       </c>
       <c r="I19" s="1">
-        <v>-262.261000</v>
+        <v>-262.26100000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>58001.599829</v>
+        <v>58001.599828999999</v>
       </c>
       <c r="L19" s="1">
         <v>16.111556</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.860000</v>
+        <v>1307.8599999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.194000</v>
+        <v>-201.19399999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>58012.475115</v>
+        <v>58012.475115000001</v>
       </c>
       <c r="Q19" s="1">
         <v>16.114576</v>
       </c>
       <c r="R19" s="1">
-        <v>1319.120000</v>
+        <v>1319.12</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.620000</v>
+        <v>-183.62</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>58023.008122</v>
+        <v>58023.008121999999</v>
       </c>
       <c r="V19" s="1">
-        <v>16.117502</v>
+        <v>16.117502000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.769000</v>
+        <v>-170.76900000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>58033.560525</v>
+        <v>58033.560525000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.120433</v>
+        <v>16.120432999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1349.640000</v>
+        <v>1349.64</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.117000</v>
+        <v>-169.11699999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>58044.059820</v>
+        <v>58044.059820000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>16.123350</v>
+        <v>16.123349999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.790000</v>
+        <v>1362.79</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.088000</v>
+        <v>-179.08799999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>58054.613696</v>
@@ -4955,859 +5371,859 @@
         <v>16.126282</v>
       </c>
       <c r="AL19" s="1">
-        <v>1383.850000</v>
+        <v>1383.85</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.228000</v>
+        <v>-209.22800000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>58065.451281</v>
+        <v>58065.451281000001</v>
       </c>
       <c r="AP19" s="1">
         <v>16.129292</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1406.030000</v>
+        <v>1406.03</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.022000</v>
+        <v>-253.02199999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>58076.616721</v>
+        <v>58076.616720999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>16.132394</v>
+        <v>16.132394000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1431.210000</v>
+        <v>1431.21</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.837000</v>
+        <v>-312.83699999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>58087.696356</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.135471</v>
+        <v>16.135470999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1450.960000</v>
+        <v>1450.96</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.615000</v>
+        <v>-364.61500000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>58098.632676</v>
+        <v>58098.632676000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.138509</v>
+        <v>16.138508999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1537.950000</v>
+        <v>1537.95</v>
       </c>
       <c r="BG19" s="1">
-        <v>-610.778000</v>
+        <v>-610.77800000000002</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>58109.975159</v>
+        <v>58109.975159000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>16.141660</v>
+        <v>16.141660000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1694.780000</v>
+        <v>1694.78</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1050.420000</v>
+        <v>-1050.42</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>58120.873752</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.144687</v>
+        <v>16.144687000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1992.720000</v>
+        <v>1992.72</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1808.940000</v>
+        <v>-1808.94</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>58131.540217</v>
+        <v>58131.540217000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.147650</v>
+        <v>16.147649999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2385.450000</v>
+        <v>2385.4499999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2680.770000</v>
+        <v>-2680.77</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>58142.939273</v>
+        <v>58142.939273000004</v>
       </c>
       <c r="BY19" s="1">
-        <v>16.150816</v>
+        <v>16.150815999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2868.120000</v>
+        <v>2868.12</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3626.290000</v>
+        <v>-3626.29</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>58155.648271</v>
+        <v>58155.648270999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.154347</v>
+        <v>16.154347000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4289.070000</v>
+        <v>4289.07</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5885.990000</v>
+        <v>-5885.99</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>57981.604575</v>
+        <v>57981.604574999998</v>
       </c>
       <c r="B20" s="1">
-        <v>16.106001</v>
+        <v>16.106000999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1249.280000</v>
+        <v>1249.28</v>
       </c>
       <c r="D20" s="1">
-        <v>-304.369000</v>
+        <v>-304.36900000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>57992.067219</v>
+        <v>57992.067218999997</v>
       </c>
       <c r="G20" s="1">
         <v>16.108908</v>
       </c>
       <c r="H20" s="1">
-        <v>1273.630000</v>
+        <v>1273.6300000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-262.554000</v>
+        <v>-262.55399999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>58002.258021</v>
+        <v>58002.258021000001</v>
       </c>
       <c r="L20" s="1">
-        <v>16.111738</v>
+        <v>16.111737999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.620000</v>
+        <v>1307.6199999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.144000</v>
+        <v>-201.14400000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>58012.857495</v>
+        <v>58012.857494999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>16.114683</v>
+        <v>16.114682999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1319.190000</v>
+        <v>1319.19</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.542000</v>
+        <v>-183.542</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>58023.356311</v>
+        <v>58023.356311000003</v>
       </c>
       <c r="V20" s="1">
-        <v>16.117599</v>
+        <v>16.117598999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1332.030000</v>
+        <v>1332.03</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.591000</v>
+        <v>-170.59100000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>58033.909689</v>
       </c>
       <c r="AA20" s="1">
-        <v>16.120530</v>
+        <v>16.120529999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1349.710000</v>
+        <v>1349.71</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.180000</v>
+        <v>-169.18</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>58044.410005</v>
+        <v>58044.410004999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.123447</v>
+        <v>16.123446999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.810000</v>
+        <v>1362.81</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.075000</v>
+        <v>-179.07499999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>58054.964899</v>
+        <v>58054.964898999999</v>
       </c>
       <c r="AK20" s="1">
         <v>16.126379</v>
       </c>
       <c r="AL20" s="1">
-        <v>1383.880000</v>
+        <v>1383.88</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.221000</v>
+        <v>-209.221</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>58065.880352</v>
       </c>
       <c r="AP20" s="1">
-        <v>16.129411</v>
+        <v>16.129411000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1406.010000</v>
+        <v>1406.01</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.098000</v>
+        <v>-253.09800000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>58076.924241</v>
+        <v>58076.924241000001</v>
       </c>
       <c r="AU20" s="1">
         <v>16.132479</v>
       </c>
       <c r="AV20" s="1">
-        <v>1431.190000</v>
+        <v>1431.19</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.764000</v>
+        <v>-312.76400000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>58087.975106</v>
+        <v>58087.975105999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.135549</v>
+        <v>16.135549000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.000000</v>
+        <v>1451</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.586000</v>
+        <v>-364.58600000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>58098.993731</v>
+        <v>58098.993731000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.138609</v>
+        <v>16.138608999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1537.980000</v>
+        <v>1537.98</v>
       </c>
       <c r="BG20" s="1">
-        <v>-610.734000</v>
+        <v>-610.73400000000004</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>58110.352613</v>
+        <v>58110.352613000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.141765</v>
+        <v>16.141764999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1694.700000</v>
+        <v>1694.7</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1050.410000</v>
+        <v>-1050.4100000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>58121.601381</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.144889</v>
+        <v>16.144888999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1992.640000</v>
+        <v>1992.64</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1808.780000</v>
+        <v>-1808.78</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>58132.381445</v>
+        <v>58132.381444999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>16.147884</v>
+        <v>16.147884000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2385.450000</v>
+        <v>2385.4499999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2680.560000</v>
+        <v>-2680.56</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>58143.371321</v>
+        <v>58143.371320999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>16.150936</v>
+        <v>16.150936000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2868.040000</v>
+        <v>2868.04</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3626.570000</v>
+        <v>-3626.57</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>58156.170083</v>
+        <v>58156.170082999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.154492</v>
+        <v>16.154492000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4274.740000</v>
+        <v>4274.74</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5885.300000</v>
+        <v>-5885.3</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>57982.255358</v>
+        <v>57982.255358000002</v>
       </c>
       <c r="B21" s="1">
         <v>16.106182</v>
       </c>
       <c r="C21" s="1">
-        <v>1249.000000</v>
+        <v>1249</v>
       </c>
       <c r="D21" s="1">
-        <v>-304.185000</v>
+        <v>-304.185</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>57992.428768</v>
+        <v>57992.428767999998</v>
       </c>
       <c r="G21" s="1">
-        <v>16.109008</v>
+        <v>16.109007999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1273.150000</v>
+        <v>1273.1500000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-262.605000</v>
+        <v>-262.60500000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>58002.638420</v>
+        <v>58002.638420000003</v>
       </c>
       <c r="L21" s="1">
-        <v>16.111844</v>
+        <v>16.111844000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1307.680000</v>
+        <v>1307.68</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.175000</v>
+        <v>-201.17500000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>58013.202709</v>
+        <v>58013.202708999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>16.114779</v>
+        <v>16.114778999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1319.250000</v>
+        <v>1319.25</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.585000</v>
+        <v>-183.58500000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>58023.700568</v>
       </c>
       <c r="V21" s="1">
-        <v>16.117695</v>
+        <v>16.117695000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1332.190000</v>
+        <v>1332.19</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.682000</v>
+        <v>-170.68199999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>58034.257882</v>
+        <v>58034.257881999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>16.120627</v>
+        <v>16.120626999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1349.690000</v>
+        <v>1349.69</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.063000</v>
+        <v>-169.06299999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>58044.843996</v>
+        <v>58044.843996000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>16.123568</v>
+        <v>16.123567999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.600000</v>
+        <v>1362.6</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.358000</v>
+        <v>-179.358</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>58055.394895</v>
+        <v>58055.394894999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>16.126499</v>
+        <v>16.126498999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1383.870000</v>
+        <v>1383.87</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.255000</v>
+        <v>-209.255</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>58066.168000</v>
+        <v>58066.167999999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>16.129491</v>
+        <v>16.129491000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1405.990000</v>
+        <v>1405.99</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.055000</v>
+        <v>-253.05500000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>58077.288304</v>
+        <v>58077.288304000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>16.132580</v>
+        <v>16.132580000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1431.190000</v>
+        <v>1431.19</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.777000</v>
+        <v>-312.77699999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>58088.339705</v>
+        <v>58088.339704999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.135650</v>
+        <v>16.135649999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1450.960000</v>
+        <v>1450.96</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.585000</v>
+        <v>-364.58499999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>58099.351348</v>
+        <v>58099.351347999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>16.138709</v>
+        <v>16.138708999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1537.920000</v>
+        <v>1537.92</v>
       </c>
       <c r="BG21" s="1">
-        <v>-610.730000</v>
+        <v>-610.73</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>58111.125877</v>
+        <v>58111.125876999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>16.141979</v>
+        <v>16.141978999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1694.730000</v>
+        <v>1694.73</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1050.400000</v>
+        <v>-1050.4000000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>58121.711493</v>
+        <v>58121.711493000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>16.144920</v>
+        <v>16.144919999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1992.630000</v>
+        <v>1992.63</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1808.730000</v>
+        <v>-1808.73</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>58132.816956</v>
+        <v>58132.816956000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>16.148005</v>
+        <v>16.148005000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2385.510000</v>
+        <v>2385.5100000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2680.300000</v>
+        <v>-2680.3</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>58143.793415</v>
       </c>
       <c r="BY21" s="1">
-        <v>16.151054</v>
+        <v>16.151053999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2868.690000</v>
+        <v>2868.69</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3626.180000</v>
+        <v>-3626.18</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>58156.991476</v>
+        <v>58156.991476000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.154720</v>
+        <v>16.154720000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4277.570000</v>
+        <v>4277.57</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5899.040000</v>
+        <v>-5899.04</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>57982.630301</v>
+        <v>57982.630300999997</v>
       </c>
       <c r="B22" s="1">
-        <v>16.106286</v>
+        <v>16.106286000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1249.390000</v>
+        <v>1249.3900000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-304.234000</v>
+        <v>-304.23399999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>57992.779477</v>
+        <v>57992.779476999996</v>
       </c>
       <c r="G22" s="1">
         <v>16.109105</v>
       </c>
       <c r="H22" s="1">
-        <v>1272.740000</v>
+        <v>1272.74</v>
       </c>
       <c r="I22" s="1">
-        <v>-261.865000</v>
+        <v>-261.86500000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>58002.983151</v>
       </c>
       <c r="L22" s="1">
-        <v>16.111940</v>
+        <v>16.111940000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1307.890000</v>
+        <v>1307.8900000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.091000</v>
+        <v>-201.09100000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>58013.554374</v>
+        <v>58013.554373999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>16.114876</v>
+        <v>16.114875999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1319.230000</v>
+        <v>1319.23</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.634000</v>
+        <v>-183.63399999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>58024.132550</v>
+        <v>58024.132550000002</v>
       </c>
       <c r="V22" s="1">
         <v>16.117815</v>
       </c>
       <c r="W22" s="1">
-        <v>1332.200000</v>
+        <v>1332.2</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.749000</v>
+        <v>-170.749</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>58034.683977</v>
+        <v>58034.683977000001</v>
       </c>
       <c r="AA22" s="1">
         <v>16.120746</v>
       </c>
       <c r="AB22" s="1">
-        <v>1349.540000</v>
+        <v>1349.54</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.892000</v>
+        <v>-168.892</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>58045.114841</v>
+        <v>58045.114841000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.123643</v>
+        <v>16.123643000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.870000</v>
+        <v>1362.87</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.058000</v>
+        <v>-179.05799999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>58055.672157</v>
+        <v>58055.672157000001</v>
       </c>
       <c r="AK22" s="1">
         <v>16.126576</v>
       </c>
       <c r="AL22" s="1">
-        <v>1383.880000</v>
+        <v>1383.88</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.212000</v>
+        <v>-209.21199999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>58066.532062</v>
+        <v>58066.532061999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>16.129592</v>
+        <v>16.129591999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1406.050000</v>
+        <v>1406.05</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.071000</v>
+        <v>-253.071</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>58077.653391</v>
       </c>
       <c r="AU22" s="1">
-        <v>16.132681</v>
+        <v>16.132681000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1431.230000</v>
+        <v>1431.23</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.782000</v>
+        <v>-312.78199999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>58088.981985</v>
+        <v>58088.981984999999</v>
       </c>
       <c r="AZ22" s="1">
         <v>16.135828</v>
       </c>
       <c r="BA22" s="1">
-        <v>1450.980000</v>
+        <v>1450.98</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.609000</v>
+        <v>-364.60899999999998</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>58100.076995</v>
+        <v>58100.076995000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>16.138910</v>
+        <v>16.138909999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1537.880000</v>
+        <v>1537.88</v>
       </c>
       <c r="BG22" s="1">
-        <v>-610.704000</v>
+        <v>-610.70399999999995</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>58111.500851</v>
+        <v>58111.500850999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.142084</v>
+        <v>16.142084000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1694.690000</v>
+        <v>1694.69</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1050.380000</v>
+        <v>-1050.3800000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>58122.116724</v>
@@ -5816,679 +6232,679 @@
         <v>16.145032</v>
       </c>
       <c r="BP22" s="1">
-        <v>1992.750000</v>
+        <v>1992.75</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1808.770000</v>
+        <v>-1808.77</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>58133.244967</v>
+        <v>58133.244966999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>16.148124</v>
+        <v>16.148123999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2385.170000</v>
+        <v>2385.17</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2680.160000</v>
+        <v>-2680.16</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>58144.528951</v>
       </c>
       <c r="BY22" s="1">
-        <v>16.151258</v>
+        <v>16.151257999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2868.710000</v>
+        <v>2868.71</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3626.100000</v>
+        <v>-3626.1</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>58157.202761</v>
       </c>
       <c r="CD22" s="1">
-        <v>16.154779</v>
+        <v>16.154779000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4292.060000</v>
+        <v>4292.0600000000004</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5893.590000</v>
+        <v>-5893.59</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>57982.971586</v>
       </c>
       <c r="B23" s="1">
-        <v>16.106381</v>
+        <v>16.106380999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1249.270000</v>
+        <v>1249.27</v>
       </c>
       <c r="D23" s="1">
-        <v>-304.309000</v>
+        <v>-304.30900000000003</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>57993.123663</v>
+        <v>57993.123662999998</v>
       </c>
       <c r="G23" s="1">
-        <v>16.109201</v>
+        <v>16.109200999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1273.220000</v>
+        <v>1273.22</v>
       </c>
       <c r="I23" s="1">
-        <v>-263.063000</v>
+        <v>-263.06299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>58003.332818</v>
+        <v>58003.332818000003</v>
       </c>
       <c r="L23" s="1">
-        <v>16.112037</v>
+        <v>16.112037000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1307.750000</v>
+        <v>1307.75</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.219000</v>
+        <v>-201.21899999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>58013.982457</v>
+        <v>58013.982456999998</v>
       </c>
       <c r="Q23" s="1">
         <v>16.114995</v>
       </c>
       <c r="R23" s="1">
-        <v>1319.180000</v>
+        <v>1319.18</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.663000</v>
+        <v>-183.66300000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>58024.397911</v>
       </c>
       <c r="V23" s="1">
-        <v>16.117888</v>
+        <v>16.117888000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1332.100000</v>
+        <v>1332.1</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.584000</v>
+        <v>-170.584</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>58034.968152</v>
+        <v>58034.968152000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>16.120824</v>
+        <v>16.120823999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1349.650000</v>
+        <v>1349.65</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.195000</v>
+        <v>-169.19499999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>58045.458616</v>
+        <v>58045.458616000004</v>
       </c>
       <c r="AF23" s="1">
         <v>16.123739</v>
       </c>
       <c r="AG23" s="1">
-        <v>1363.020000</v>
+        <v>1363.02</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.868000</v>
+        <v>-178.86799999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>58056.055070</v>
+        <v>58056.055070000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.126682</v>
+        <v>16.126681999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1383.860000</v>
+        <v>1383.86</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.229000</v>
+        <v>-209.22900000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>58066.888725</v>
+        <v>58066.888724999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>16.129691</v>
+        <v>16.129691000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1406.060000</v>
+        <v>1406.06</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.084000</v>
+        <v>-253.084</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>58078.390911</v>
+        <v>58078.390911000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.132886</v>
+        <v>16.132885999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1431.220000</v>
+        <v>1431.22</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.828000</v>
+        <v>-312.82799999999997</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>58089.413010</v>
+        <v>58089.413009999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.135948</v>
+        <v>16.135947999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1450.960000</v>
+        <v>1450.96</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.591000</v>
+        <v>-364.59100000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>58100.436595</v>
+        <v>58100.436594999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>16.139010</v>
+        <v>16.139009999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1537.940000</v>
+        <v>1537.94</v>
       </c>
       <c r="BG23" s="1">
-        <v>-610.713000</v>
+        <v>-610.71299999999997</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>58111.874339</v>
+        <v>58111.874339000002</v>
       </c>
       <c r="BJ23" s="1">
         <v>16.142187</v>
       </c>
       <c r="BK23" s="1">
-        <v>1694.750000</v>
+        <v>1694.75</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1050.370000</v>
+        <v>-1050.3699999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>58122.834438</v>
+        <v>58122.834437999998</v>
       </c>
       <c r="BO23" s="1">
         <v>16.145232</v>
       </c>
       <c r="BP23" s="1">
-        <v>1992.560000</v>
+        <v>1992.56</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1808.810000</v>
+        <v>-1808.81</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>58133.974085</v>
+        <v>58133.974085000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>16.148326</v>
+        <v>16.148326000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2385.240000</v>
+        <v>2385.2399999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2679.950000</v>
+        <v>-2679.95</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>58144.695607</v>
+        <v>58144.695607000001</v>
       </c>
       <c r="BY23" s="1">
         <v>16.151304</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2867.570000</v>
+        <v>2867.57</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3626.290000</v>
+        <v>-3626.29</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>58157.724023</v>
+        <v>58157.724023000002</v>
       </c>
       <c r="CD23" s="1">
         <v>16.154923</v>
       </c>
       <c r="CE23" s="1">
-        <v>4290.510000</v>
+        <v>4290.51</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5897.750000</v>
+        <v>-5897.75</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>57983.314445</v>
+        <v>57983.314445000004</v>
       </c>
       <c r="B24" s="1">
-        <v>16.106476</v>
+        <v>16.106476000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1249.170000</v>
+        <v>1249.17</v>
       </c>
       <c r="D24" s="1">
-        <v>-304.382000</v>
+        <v>-304.38200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>57993.561135</v>
+        <v>57993.561135000004</v>
       </c>
       <c r="G24" s="1">
         <v>16.109323</v>
       </c>
       <c r="H24" s="1">
-        <v>1273.720000</v>
+        <v>1273.72</v>
       </c>
       <c r="I24" s="1">
-        <v>-261.674000</v>
+        <v>-261.67399999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>58003.758882</v>
+        <v>58003.758882000002</v>
       </c>
       <c r="L24" s="1">
-        <v>16.112155</v>
+        <v>16.112155000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.720000</v>
+        <v>1307.72</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.184000</v>
+        <v>-201.184</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>58014.258196</v>
+        <v>58014.258196000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>16.115072</v>
+        <v>16.115072000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1319.240000</v>
+        <v>1319.24</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.638000</v>
+        <v>-183.63800000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>58024.740183</v>
+        <v>58024.740183000002</v>
       </c>
       <c r="V24" s="1">
-        <v>16.117983</v>
+        <v>16.117982999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1332.350000</v>
+        <v>1332.35</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.703000</v>
+        <v>-170.703</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>58035.317368</v>
+        <v>58035.317368000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.120921</v>
+        <v>16.120920999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1349.540000</v>
+        <v>1349.54</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.931000</v>
+        <v>-168.93100000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>58045.801802</v>
+        <v>58045.801802000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.123834</v>
+        <v>16.123833999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1362.810000</v>
+        <v>1362.81</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.039000</v>
+        <v>-179.03899999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>58056.720732</v>
+        <v>58056.720732000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>16.126867</v>
+        <v>16.126867000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1383.860000</v>
+        <v>1383.86</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.213000</v>
+        <v>-209.21299999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>58067.611853</v>
+        <v>58067.611853000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.129892</v>
+        <v>16.129892000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1406.030000</v>
+        <v>1406.03</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.047000</v>
+        <v>-253.047</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>58078.773328</v>
+        <v>58078.773328000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.132993</v>
+        <v>16.132992999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1431.200000</v>
+        <v>1431.2</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.804000</v>
+        <v>-312.80399999999997</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>58089.789969</v>
+        <v>58089.789968999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>16.136053</v>
       </c>
       <c r="BA24" s="1">
-        <v>1450.960000</v>
+        <v>1450.96</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.571000</v>
+        <v>-364.57100000000003</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>58100.797682</v>
+        <v>58100.797681999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>16.139110</v>
+        <v>16.139109999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1537.940000</v>
+        <v>1537.94</v>
       </c>
       <c r="BG24" s="1">
-        <v>-610.704000</v>
+        <v>-610.70399999999995</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>58112.565763</v>
+        <v>58112.565762999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>16.142379</v>
+        <v>16.142378999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1694.760000</v>
+        <v>1694.76</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1050.370000</v>
+        <v>-1050.3699999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>58122.951796</v>
+        <v>58122.951796000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>16.145264</v>
+        <v>16.145264000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1992.580000</v>
+        <v>1992.58</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1808.660000</v>
+        <v>-1808.66</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>58134.086217</v>
+        <v>58134.086216999996</v>
       </c>
       <c r="BT24" s="1">
-        <v>16.148357</v>
+        <v>16.148357000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2385.630000</v>
+        <v>2385.63</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2679.550000</v>
+        <v>-2679.55</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>58145.122168</v>
+        <v>58145.122168000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.151423</v>
+        <v>16.151423000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2868.250000</v>
+        <v>2868.25</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3626.350000</v>
+        <v>-3626.35</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>58158.273621</v>
       </c>
       <c r="CD24" s="1">
-        <v>16.155076</v>
+        <v>16.155076000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4280.320000</v>
+        <v>4280.32</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5898.820000</v>
+        <v>-5898.82</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>57983.740385</v>
+        <v>57983.740384999997</v>
       </c>
       <c r="B25" s="1">
-        <v>16.106595</v>
+        <v>16.106594999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1249.240000</v>
+        <v>1249.24</v>
       </c>
       <c r="D25" s="1">
-        <v>-304.223000</v>
+        <v>-304.22300000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>57993.840412</v>
+        <v>57993.840411999998</v>
       </c>
       <c r="G25" s="1">
-        <v>16.109400</v>
+        <v>16.109400000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1273.720000</v>
+        <v>1273.72</v>
       </c>
       <c r="I25" s="1">
-        <v>-262.624000</v>
+        <v>-262.62400000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>58004.034166</v>
+        <v>58004.034165999998</v>
       </c>
       <c r="L25" s="1">
-        <v>16.112232</v>
+        <v>16.112231999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.370000</v>
+        <v>1307.3699999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.402000</v>
+        <v>-201.40199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>58014.609891</v>
       </c>
       <c r="Q25" s="1">
-        <v>16.115169</v>
+        <v>16.115169000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1319.200000</v>
+        <v>1319.2</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.574000</v>
+        <v>-183.57400000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>58025.085862</v>
       </c>
       <c r="V25" s="1">
-        <v>16.118079</v>
+        <v>16.118079000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>1332.110000</v>
+        <v>1332.11</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.837000</v>
+        <v>-170.83699999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>58035.662551</v>
+        <v>58035.662551000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.121017</v>
+        <v>16.121016999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1349.620000</v>
+        <v>1349.62</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.081000</v>
+        <v>-169.08099999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>58046.487737</v>
+        <v>58046.487737000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>16.124024</v>
+        <v>16.124023999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.660000</v>
+        <v>1362.66</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.119000</v>
+        <v>-179.119</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>58057.066907</v>
@@ -6497,225 +6913,225 @@
         <v>16.126963</v>
       </c>
       <c r="AL25" s="1">
-        <v>1383.860000</v>
+        <v>1383.86</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.182000</v>
+        <v>-209.18199999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>58067.998236</v>
+        <v>58067.998235999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>16.130000</v>
+        <v>16.13</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1406.070000</v>
+        <v>1406.07</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.054000</v>
+        <v>-253.054</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>58079.134413</v>
       </c>
       <c r="AU25" s="1">
-        <v>16.133093</v>
+        <v>16.133092999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1431.210000</v>
+        <v>1431.21</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.827000</v>
+        <v>-312.827</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>58090.485891</v>
+        <v>58090.485890999997</v>
       </c>
       <c r="AZ25" s="1">
         <v>16.136246</v>
       </c>
       <c r="BA25" s="1">
-        <v>1450.960000</v>
+        <v>1450.96</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.592000</v>
+        <v>-364.59199999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>58101.471250</v>
+        <v>58101.471250000002</v>
       </c>
       <c r="BE25" s="1">
         <v>16.139298</v>
       </c>
       <c r="BF25" s="1">
-        <v>1537.930000</v>
+        <v>1537.93</v>
       </c>
       <c r="BG25" s="1">
-        <v>-610.701000</v>
+        <v>-610.70100000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>58113.037985</v>
+        <v>58113.037985000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>16.142511</v>
+        <v>16.142510999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1694.720000</v>
+        <v>1694.72</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1050.340000</v>
+        <v>-1050.3399999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>58123.359203</v>
       </c>
       <c r="BO25" s="1">
-        <v>16.145378</v>
+        <v>16.145378000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1992.690000</v>
+        <v>1992.69</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1808.710000</v>
+        <v>-1808.71</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>58134.523157</v>
+        <v>58134.523157000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.148479</v>
+        <v>16.148478999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>2385.420000</v>
+        <v>2385.42</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2679.330000</v>
+        <v>-2679.33</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>58145.537814</v>
+        <v>58145.537814000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>16.151538</v>
+        <v>16.151537999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2868.180000</v>
+        <v>2868.18</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3625.790000</v>
+        <v>-3625.79</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>58158.803317</v>
+        <v>58158.803316999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.155223</v>
+        <v>16.155222999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4291.810000</v>
+        <v>4291.8100000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5888.910000</v>
+        <v>-5888.91</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>57984.008716</v>
+        <v>57984.008715999997</v>
       </c>
       <c r="B26" s="1">
         <v>16.106669</v>
       </c>
       <c r="C26" s="1">
-        <v>1249.150000</v>
+        <v>1249.1500000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-304.022000</v>
+        <v>-304.02199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>57994.185598</v>
+        <v>57994.185597999996</v>
       </c>
       <c r="G26" s="1">
         <v>16.109496</v>
       </c>
       <c r="H26" s="1">
-        <v>1273.800000</v>
+        <v>1273.8</v>
       </c>
       <c r="I26" s="1">
-        <v>-263.320000</v>
+        <v>-263.32</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>58004.380867</v>
       </c>
       <c r="L26" s="1">
-        <v>16.112328</v>
+        <v>16.112328000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1307.530000</v>
+        <v>1307.53</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.344000</v>
+        <v>-201.34399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>58014.955610</v>
+        <v>58014.955609999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>16.115265</v>
+        <v>16.115265000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1319.180000</v>
+        <v>1319.18</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.516000</v>
+        <v>-183.51599999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>58025.773317</v>
+        <v>58025.773316999999</v>
       </c>
       <c r="V26" s="1">
-        <v>16.118270</v>
+        <v>16.118269999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1332.160000</v>
+        <v>1332.16</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.667000</v>
+        <v>-170.667</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>58036.361416</v>
@@ -6724,180 +7140,181 @@
         <v>16.121212</v>
       </c>
       <c r="AB26" s="1">
-        <v>1349.650000</v>
+        <v>1349.65</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.089000</v>
+        <v>-169.089</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>58046.830473</v>
+        <v>58046.830473000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>16.124120</v>
+        <v>16.124120000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.730000</v>
+        <v>1362.73</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.063000</v>
+        <v>-179.06299999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>58057.415595</v>
+        <v>58057.415594999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.127060</v>
+        <v>16.12706</v>
       </c>
       <c r="AL26" s="1">
-        <v>1383.850000</v>
+        <v>1383.85</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.237000</v>
+        <v>-209.23699999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>58068.389084</v>
+        <v>58068.389084000002</v>
       </c>
       <c r="AP26" s="1">
         <v>16.130108</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1406.050000</v>
+        <v>1406.05</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.040000</v>
+        <v>-253.04</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>58079.833318</v>
+        <v>58079.833317999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>16.133287</v>
+        <v>16.133286999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1431.200000</v>
+        <v>1431.2</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.803000</v>
+        <v>-312.803</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>58090.883646</v>
+        <v>58090.883646000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>16.136357</v>
       </c>
       <c r="BA26" s="1">
-        <v>1450.950000</v>
+        <v>1450.95</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.560000</v>
+        <v>-364.56</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>58101.908720</v>
+        <v>58101.908719999999</v>
       </c>
       <c r="BE26" s="1">
         <v>16.139419</v>
       </c>
       <c r="BF26" s="1">
-        <v>1537.960000</v>
+        <v>1537.96</v>
       </c>
       <c r="BG26" s="1">
-        <v>-610.685000</v>
+        <v>-610.68499999999995</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>58113.426321</v>
+        <v>58113.426320999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>16.142618</v>
+        <v>16.142617999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1694.730000</v>
+        <v>1694.73</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1050.340000</v>
+        <v>-1050.3399999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>58123.757491</v>
+        <v>58123.757490999997</v>
       </c>
       <c r="BO26" s="1">
         <v>16.145488</v>
       </c>
       <c r="BP26" s="1">
-        <v>1992.560000</v>
+        <v>1992.56</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1808.550000</v>
+        <v>-1808.55</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>58134.955669</v>
+        <v>58134.955669000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.148599</v>
+        <v>16.148599000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2385.070000</v>
+        <v>2385.0700000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2679.280000</v>
+        <v>-2679.28</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>58145.988677</v>
+        <v>58145.988677000001</v>
       </c>
       <c r="BY26" s="1">
         <v>16.151664</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2867.950000</v>
+        <v>2867.95</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3625.670000</v>
+        <v>-3625.67</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>58159.320149</v>
+        <v>58159.320148999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.155367</v>
+        <v>16.155366999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>4270.270000</v>
+        <v>4270.2700000000004</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5886.040000</v>
+        <v>-5886.04</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>